--- a/url_sheet.xlsx
+++ b/url_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\LLama3 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50A40E-0A08-499C-8FF4-0B3AF758CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B65101-9404-46C1-946A-C11E0C902342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7EA6C23-58E9-4417-9D63-AC980A54A746}"/>
   </bookViews>
